--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -386,14 +386,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="3" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -416,6 +416,9 @@
       </c>
       <c r="B2" s="3">
         <v>0.10416666666666667</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.125</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>In Office</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Stopped for Customer, to plan next step, and perform other tasks.</t>
   </si>
 </sst>
 </file>
@@ -383,20 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="5" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -409,8 +416,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41768</v>
       </c>
@@ -418,10 +428,13 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C2" s="3">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Stopped for Customer, to plan next step, and perform other tasks.</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Created Sql Database and Tables</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +409,7 @@
     <col min="5" max="5" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -419,8 +425,11 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41768</v>
       </c>
@@ -436,6 +445,1054 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="3">
+        <f xml:space="preserve"> C2 - B2</f>
+        <v>4.1666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41768</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <f xml:space="preserve"> C3 - B3</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F344" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -44,19 +44,25 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Stopped for Customer, to plan next step, and perform other tasks.</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Created Sql Database and Tables</t>
+  </si>
+  <si>
+    <t>Stopped for Customer, to plan next step, and perform other tasks</t>
+  </si>
+  <si>
+    <t>Began coding and connected database and created Tech List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,11 +115,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -398,14 +406,15 @@
   <dimension ref="A1:F344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="110" customWidth="1"/>
   </cols>
   <sheetData>
@@ -413,10 +422,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -426,53 +435,71 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41768</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.14583333333333334</v>
+      <c r="B2" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3">
         <f xml:space="preserve"> C2 - B2</f>
-        <v>4.1666666666666671E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41768</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.22916666666666666</v>
+      <c r="B3" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.72916666666666663</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <f xml:space="preserve"> C3 - B3</f>
-        <v>2.0833333333333315E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="3"/>
+      <c r="A4" s="1">
+        <v>41768</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <f xml:space="preserve"> C4 - B4</f>
+        <v>9.375E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -55,13 +55,23 @@
   <si>
     <t>Began coding and connected database and created Tech List</t>
   </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Out  of Office</t>
+  </si>
+  <si>
+    <t>added OpenFileDialog control and have system reading in the CSV files; Nothing happens with data yet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,13 +125,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,9 +428,10 @@
     <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="110" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,8 +450,11 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41768</v>
       </c>
@@ -458,8 +474,12 @@
         <f xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="7">
+        <f>SUM(F2:F1000)</f>
+        <v>0.26041666666666674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41768</v>
       </c>
@@ -480,9 +500,9 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="B4" s="5">
         <v>0.5625</v>
@@ -501,40 +521,58 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41773</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <f xml:space="preserve"> C5 - B5</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>added OpenFileDialog control and have system reading in the CSV files; Nothing happens with data yet</t>
+  </si>
+  <si>
+    <t>Redesigned Query function,</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -476,7 +479,7 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2:F1000)</f>
-        <v>0.26041666666666674</v>
+        <v>-0.28124999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,7 +546,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="3"/>
+      <c r="A6" s="1">
+        <v>41773</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <f xml:space="preserve"> C6 - B6</f>
+        <v>-0.54166666666666663</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2:F1000)</f>
-        <v>-0.28124999999999989</v>
+        <v>0.41666666666666674</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>0.5625</v>
       </c>
       <c r="C4" s="5">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -521,7 +521,7 @@
       </c>
       <c r="F4" s="3">
         <f xml:space="preserve"> C4 - B4</f>
-        <v>9.375E-2</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,6 +552,9 @@
       <c r="B6" s="5">
         <v>0.54166666666666663</v>
       </c>
+      <c r="C6" s="5">
+        <v>0.6875</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -560,7 +563,7 @@
       </c>
       <c r="F6" s="3">
         <f xml:space="preserve"> C6 - B6</f>
-        <v>-0.54166666666666663</v>
+        <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -65,7 +65,19 @@
     <t>added OpenFileDialog control and have system reading in the CSV files; Nothing happens with data yet</t>
   </si>
   <si>
-    <t>Redesigned Query function,</t>
+    <t>Out of Office</t>
+  </si>
+  <si>
+    <t>Redesigned Query function; Finished the tech import</t>
+  </si>
+  <si>
+    <t>Began Activity Import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part Two of Two part session. </t>
+  </si>
+  <si>
+    <t>Part one of Two part session. Activities File is in File Format xls with multiple sheets. So import has to be rewritten for this.</t>
   </si>
 </sst>
 </file>
@@ -421,7 +433,7 @@
   <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +491,7 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2:F1000)</f>
-        <v>0.41666666666666674</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
         <f xml:space="preserve"> C6 - B6</f>
@@ -567,13 +579,64 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="3"/>
+      <c r="A7" s="1">
+        <v>41774</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <f xml:space="preserve"> C7 - B7</f>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
+      <c r="A8" s="1">
+        <v>41774</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3">
+        <f xml:space="preserve"> C8 - B8</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
+      <c r="A9" s="1">
+        <v>41775</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <f xml:space="preserve"> C9 - B9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -74,10 +74,10 @@
     <t>Began Activity Import</t>
   </si>
   <si>
-    <t xml:space="preserve">Part Two of Two part session. </t>
-  </si>
-  <si>
-    <t>Part one of Two part session. Activities File is in File Format xls with multiple sheets. So import has to be rewritten for this.</t>
+    <t>Activities File is in File Format xls with multiple sheets. So import has to be rewritten for this.</t>
+  </si>
+  <si>
+    <t>Finished reading from xls, began checking with records in database to insert new or update previous records.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2:F1000)</f>
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3">
         <f xml:space="preserve"> C8 - B8</f>
@@ -627,18 +627,30 @@
       <c r="B9" s="5">
         <v>0</v>
       </c>
+      <c r="C9" s="5">
+        <v>0.125</v>
+      </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3">
         <f xml:space="preserve"> C9 - B9</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41775</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2:F1000)</f>
-        <v>0.6875</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,10 +648,16 @@
       <c r="B10" s="5">
         <v>0.22916666666666666</v>
       </c>
+      <c r="C10" s="5">
+        <v>0.3125</v>
+      </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <f xml:space="preserve"> C10 - B10</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Finished reading from xls, began checking with records in database to insert new or update previous records.</t>
+  </si>
+  <si>
+    <t>Finished importing activities</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2:F1000)</f>
-        <v>0.77083333333333337</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,14 +652,17 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="C10" s="5">
-        <v>0.3125</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="3">
         <f xml:space="preserve"> C10 - B10</f>
-        <v>8.3333333333333343E-2</v>
+        <v>0.12500000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -81,13 +81,23 @@
   </si>
   <si>
     <t>Finished importing activities</t>
+  </si>
+  <si>
+    <t>Finished constructing sql query for tech search and added datagridview; dgv not operational yet.</t>
+  </si>
+  <si>
+    <t>Joey's Pay</t>
+  </si>
+  <si>
+    <t>DGV now operational.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
@@ -143,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
@@ -152,6 +162,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -433,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G344"/>
+  <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +458,10 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="110" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,8 +483,11 @@
       <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41768</v>
       </c>
@@ -494,10 +509,10 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2:F1000)</f>
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41768</v>
       </c>
@@ -518,7 +533,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41771</v>
       </c>
@@ -539,7 +554,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41773</v>
       </c>
@@ -560,7 +575,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41773</v>
       </c>
@@ -581,7 +596,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41774</v>
       </c>
@@ -602,7 +617,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41774</v>
       </c>
@@ -623,7 +638,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41775</v>
       </c>
@@ -644,7 +659,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41775</v>
       </c>
@@ -665,22 +680,61 @@
         <v>0.12500000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>41775</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <f xml:space="preserve"> C11 - B11</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>41775</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3">
+        <f xml:space="preserve"> C12 - B12</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -89,7 +89,10 @@
     <t>Joey's Pay</t>
   </si>
   <si>
-    <t>DGV now operational.</t>
+    <t>(M5;W4;F5)$100/$150</t>
+  </si>
+  <si>
+    <t>DGV now operational. And Total is calculated</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +459,10 @@
     <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="110" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -700,8 +704,8 @@
         <f xml:space="preserve"> C11 - B11</f>
         <v>6.25E-2</v>
       </c>
-      <c r="H11" s="8">
-        <v>100</v>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -718,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3">
         <f xml:space="preserve"> C12 - B12</f>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F12" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="7">
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="3">
-        <f xml:space="preserve"> C3 - B3</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3">
-        <f xml:space="preserve"> C4 - B4</f>
+        <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="3">
-        <f xml:space="preserve"> C5 - B5</f>
+        <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <f xml:space="preserve"> C6 - B6</f>
+        <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="3">
-        <f xml:space="preserve"> C7 - B7</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="3">
-        <f xml:space="preserve"> C8 - B8</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="3">
-        <f xml:space="preserve"> C9 - B9</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="3">
-        <f xml:space="preserve"> C10 - B10</f>
+        <f t="shared" si="0"/>
         <v>0.12500000000000003</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="3">
-        <f xml:space="preserve"> C11 - B11</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -725,11 +725,20 @@
         <v>22</v>
       </c>
       <c r="F12" s="3">
-        <f xml:space="preserve"> C12 - B12</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41778</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -93,16 +93,20 @@
   </si>
   <si>
     <t>DGV now operational. And Total is calculated</t>
+  </si>
+  <si>
+    <t>Fixed Calculations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
@@ -166,6 +170,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -449,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,12 +513,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F12" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F13" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="G2" s="7">
-        <f>SUM(F2:F1000)</f>
-        <v>0.9375</v>
+      <c r="G2" s="9">
+        <f>SUM(F2:F100)</f>
+        <v>1.0416666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,10 +741,19 @@
       <c r="B13" s="5">
         <v>0.29166666666666669</v>
       </c>
+      <c r="C13" s="5">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Fixed Calculations</t>
+  </si>
+  <si>
+    <t>Fixed DataGridView update error.</t>
   </si>
 </sst>
 </file>
@@ -454,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +516,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F13" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F14" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.0416666666666665</v>
+        <v>1.1041666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,7 +759,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="3"/>
+      <c r="A14" s="1">
+        <v>41780</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Fixed DataGridView update error.</t>
+  </si>
+  <si>
+    <t>Added paid column, need to complete abilty to pay off</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,12 +519,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F14" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F15" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.1041666666666665</v>
+        <v>1.1354166666666665</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,7 +783,25 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="3"/>
+      <c r="A15" s="1">
+        <v>41781</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,12 +519,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F15" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F16" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.1354166666666665</v>
+        <v>1.177083333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,7 +804,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="3"/>
+      <c r="A16" s="1">
+        <v>41781</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Added paid column, need to complete abilty to pay off</t>
+  </si>
+  <si>
+    <t>Imported Receivers and completed pay.</t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +527,7 @@
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.177083333333333</v>
+        <v>1.2916666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,7 +790,7 @@
         <v>41781</v>
       </c>
       <c r="B15" s="5">
-        <v>0.65625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C15" s="5">
         <v>0.6875</v>
@@ -800,25 +803,28 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="B16" s="5">
-        <v>0.95763888888888893</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
-        <v>0.99930555555555556</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,52 +827,61 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41782</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,61 +827,52 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>41782</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Imported Receivers and completed pay.</t>
+  </si>
+  <si>
+    <t>Adde RecInv dgv and created query for it.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,7 +182,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,12 +525,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F16" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F17" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.2916666666666663</v>
+        <v>1.3541666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,52 +830,67 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Adde RecInv dgv and created query for it.</t>
+  </si>
+  <si>
+    <t>(M4.5;W4;F5)$135/$135</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="97.140625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,7 +833,10 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41782</v>
+      </c>
       <c r="B17" s="5">
         <v>0.54166666666666663</v>
       </c>
@@ -847,50 +853,53 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>(M4.5;W4;F5)$135/$135</t>
+  </si>
+  <si>
+    <t>Restructure of search method.</t>
+  </si>
+  <si>
+    <t>Finished restructuring search method, added extra tabs and tables, added transfer of receivers.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,12 +534,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F17" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F19" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.3541666666666663</v>
+        <v>1.708333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,10 +864,46 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="3"/>
+      <c r="A18" s="1">
+        <v>41786</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
+      <c r="A19" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Finished restructuring search method, added extra tabs and tables, added transfer of receivers.</t>
+  </si>
+  <si>
+    <t>Added Techless searchs.</t>
+  </si>
+  <si>
+    <t>Fixed Format on Currency columns.</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,12 +540,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F19" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F21" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.708333333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -906,10 +912,46 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
+      <c r="A20" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
+      <c r="A21" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Fixed Format on Currency columns.</t>
+  </si>
+  <si>
+    <t>Worked on Threading Process Bar</t>
+  </si>
+  <si>
+    <t>Finished Progress bar, set up File to Print, Smoothed errors and visual appeal</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,12 +546,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F21" si="0" xml:space="preserve"> C2 - B2</f>
+        <f t="shared" ref="F2:F23" si="0" xml:space="preserve"> C2 - B2</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>1.875</v>
+        <v>2.2083333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -954,10 +960,46 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
+      <c r="A22" s="1">
+        <v>41788</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
+      <c r="A23" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27083333333333331</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -125,10 +125,7 @@
     <t>Fixed Format on Currency columns.</t>
   </si>
   <si>
-    <t>Worked on Threading Process Bar</t>
-  </si>
-  <si>
-    <t>Finished Progress bar, set up File to Print, Smoothed errors and visual appeal</t>
+    <t xml:space="preserve">Finished Progress bar threading, File Printing, General smoothing and added duplicacy Check. </t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +548,7 @@
       </c>
       <c r="G2" s="9">
         <f>SUM(F2:F100)</f>
-        <v>2.2083333333333335</v>
+        <v>2.2291666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,13 +958,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="B22" s="5">
-        <v>0.93680555555555556</v>
+        <v>0</v>
       </c>
       <c r="C22" s="5">
-        <v>0.99930555555555556</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -977,29 +974,12 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>41789</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
